--- a/Manuscript_tables/Table_S9.xlsx
+++ b/Manuscript_tables/Table_S9.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katiefisher/SurveyPaper/Manuscript_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66953CB4-1703-2441-B3E6-8680D8B81BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0A6A0A-5388-714E-9B52-D5228F3E3953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="27460" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="460" windowWidth="25800" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table_S5" sheetId="1" r:id="rId1"/>
+    <sheet name="Table_S9" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -31,18 +31,9 @@
     <t>Long</t>
   </si>
   <si>
-    <t>IsoTemp</t>
-  </si>
-  <si>
-    <t>Specific.Location</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
-    <t>Species</t>
-  </si>
-  <si>
     <t>Soil</t>
   </si>
   <si>
@@ -238,12 +229,6 @@
     <t>Arkansas</t>
   </si>
   <si>
-    <t>Specific_substrate</t>
-  </si>
-  <si>
-    <t>Substrate_genus</t>
-  </si>
-  <si>
     <t>yHRVM223*</t>
   </si>
   <si>
@@ -439,15 +424,6 @@
     <t>verona Town, Bud Jackson school Forest, WI</t>
   </si>
   <si>
-    <t>YHMH117</t>
-  </si>
-  <si>
-    <t>YHMH115*</t>
-  </si>
-  <si>
-    <t>YHMH114*</t>
-  </si>
-  <si>
     <t>Missouri</t>
   </si>
   <si>
@@ -587,13 +563,37 @@
   </si>
   <si>
     <t>* Non-independent isolations, isolated from same sample as other strain(s) on the list</t>
+  </si>
+  <si>
+    <t>yHMH114*</t>
+  </si>
+  <si>
+    <t>yHMH115*</t>
+  </si>
+  <si>
+    <t>yHMH117</t>
+  </si>
+  <si>
+    <t>Isolation Temperature (℃)</t>
+  </si>
+  <si>
+    <t>Specific substrate</t>
+  </si>
+  <si>
+    <t>Substrate genus</t>
+  </si>
+  <si>
+    <t>Specific Location</t>
+  </si>
+  <si>
+    <t>OTU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -724,6 +724,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1070,9 +1078,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1430,18 +1439,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
@@ -1449,2411 +1458,2411 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
         <v>34.887999999999998</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-84.436000000000007</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>34.9529</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-82.947599999999994</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>34.9529</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-82.947599999999994</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>29.424099999999999</v>
+      </c>
+      <c r="D5">
+        <v>-98.493600000000001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
-        <v>29.424099999999999</v>
-      </c>
-      <c r="C5">
-        <v>-98.493600000000001</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>35.674500000000002</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-90.099800000000002</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>35.674500000000002</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-90.099800000000002</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
         <v>47.855570999999998</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-121.97157199999999</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
         <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9">
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>47.855570999999998</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-121.97157199999999</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
         <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
         <v>47.855570999999998</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-121.97157199999999</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
         <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>36.023224999999996</v>
+      </c>
+      <c r="D11">
+        <v>-80.303843999999998</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
         <v>35</v>
-      </c>
-      <c r="B11">
-        <v>36.023224999999996</v>
-      </c>
-      <c r="C11">
-        <v>-80.303843999999998</v>
-      </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>36.023224999999996</v>
+      </c>
+      <c r="D12">
+        <v>-80.303843999999998</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
         <v>39</v>
       </c>
-      <c r="B12">
-        <v>36.023224999999996</v>
-      </c>
-      <c r="C12">
-        <v>-80.303843999999998</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
-      </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
         <v>36.023224999999996</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-80.303843999999998</v>
       </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
       <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
         <v>36.023224999999996</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-80.303843999999998</v>
       </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
       <c r="E14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14">
-        <v>30</v>
-      </c>
-      <c r="G14" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15">
+        <v>77</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
         <v>36.023224999999996</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-80.303843999999998</v>
       </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
       <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16">
+        <v>78</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
         <v>36.023224999999996</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-80.303843999999998</v>
       </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
       <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16">
         <v>22</v>
       </c>
-      <c r="G16" t="s">
-        <v>53</v>
-      </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17">
+        <v>79</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
         <v>36.023224999999996</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-80.303843999999998</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>52</v>
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18">
+        <v>80</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
         <v>36.023224999999996</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-80.303843999999998</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
         <v>51</v>
       </c>
-      <c r="F18">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" t="s">
-        <v>38</v>
-      </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>42.013309</v>
+      </c>
+      <c r="D19">
+        <v>-89.890341000000006</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" t="s">
         <v>59</v>
-      </c>
-      <c r="B19">
-        <v>42.013309</v>
-      </c>
-      <c r="C19">
-        <v>-89.890341000000006</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
         <v>42.013309</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-89.890341000000006</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>61</v>
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>37.505724999999998</v>
+      </c>
+      <c r="D21">
+        <v>-76.398949999999999</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
         <v>20</v>
-      </c>
-      <c r="B21">
-        <v>37.505724999999998</v>
-      </c>
-      <c r="C21">
-        <v>-76.398949999999999</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
         <v>34.951681000000001</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-82.946213</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22">
-        <v>30</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23">
+        <v>81</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
         <v>34.951681000000001</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-82.946213</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23">
         <v>22</v>
       </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24">
+        <v>82</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
         <v>34.951681000000001</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-82.946213</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24">
         <v>22</v>
       </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
       <c r="H24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
         <v>42.866602999999998</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-88.336550000000003</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
         <v>7</v>
       </c>
-      <c r="E25" t="s">
+      <c r="I25" t="s">
         <v>8</v>
-      </c>
-      <c r="F25">
-        <v>30</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26">
+        <v>60</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
         <v>42.043441000000001</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-88.004581000000002</v>
       </c>
-      <c r="D26" t="s">
-        <v>64</v>
-      </c>
       <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26">
         <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>65</v>
       </c>
       <c r="H26" t="s">
         <v>62</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
         <v>42.866602999999998</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-88.336550000000003</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
         <v>7</v>
       </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27">
-        <v>10</v>
-      </c>
-      <c r="G27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28">
+        <v>70</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
         <v>42.866602999999998</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-88.336550000000003</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s">
         <v>7</v>
       </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28">
-        <v>30</v>
-      </c>
-      <c r="G28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>46.482739000000002</v>
+      </c>
+      <c r="D29">
+        <v>-86.671216000000001</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s">
         <v>55</v>
-      </c>
-      <c r="B29">
-        <v>46.482739000000002</v>
-      </c>
-      <c r="C29">
-        <v>-86.671216000000001</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29">
-        <v>30</v>
-      </c>
-      <c r="G29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" t="s">
-        <v>58</v>
-      </c>
-      <c r="I29" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30">
+        <v>179</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30">
         <v>46.603602000000002</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-85.206238999999997</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" t="s">
-        <v>186</v>
-      </c>
-      <c r="F30">
-        <v>30</v>
-      </c>
-      <c r="G30" t="s">
-        <v>185</v>
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30">
+        <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>58</v>
+        <v>177</v>
       </c>
       <c r="I30" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31">
+        <v>176</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31">
         <v>44</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-88</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31">
         <v>22</v>
       </c>
-      <c r="G31" t="s">
-        <v>182</v>
-      </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="I31" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32">
+        <v>175</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32">
         <v>44</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-88</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" t="s">
-        <v>147</v>
-      </c>
-      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32">
         <v>22</v>
       </c>
-      <c r="G32" t="s">
-        <v>182</v>
-      </c>
       <c r="H32" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>181</v>
-      </c>
-      <c r="B33">
+        <v>173</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33">
         <v>43.567495999999998</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-72.289614999999998</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
       <c r="E33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33">
         <v>22</v>
       </c>
-      <c r="G33" t="s">
-        <v>172</v>
-      </c>
       <c r="H33" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="I33" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34">
+        <v>172</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34">
         <v>43.567495999999998</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-72.289614999999998</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
       <c r="E34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34">
-        <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>172</v>
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34">
+        <v>30</v>
       </c>
       <c r="H34" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="I34" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>179</v>
-      </c>
-      <c r="B35">
+        <v>171</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35">
         <v>43.567495999999998</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-72.289614999999998</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
       <c r="E35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35">
-        <v>30</v>
-      </c>
-      <c r="G35" t="s">
-        <v>172</v>
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35">
+        <v>30</v>
       </c>
       <c r="H35" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="I35" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36">
+        <v>170</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36">
         <v>43.567495999999998</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-72.289614999999998</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
       <c r="E36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36">
         <v>22</v>
       </c>
-      <c r="G36" t="s">
-        <v>172</v>
-      </c>
       <c r="H36" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="I36" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B37">
+        <v>169</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37">
         <v>43.567495999999998</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-72.289614999999998</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
       <c r="E37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37">
         <v>10</v>
       </c>
-      <c r="G37" t="s">
-        <v>172</v>
-      </c>
       <c r="H37" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="I37" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>176</v>
-      </c>
-      <c r="B38">
+        <v>168</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38">
         <v>43.567495999999998</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-72.289614999999998</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
       <c r="E38" t="s">
-        <v>161</v>
-      </c>
-      <c r="F38">
-        <v>30</v>
-      </c>
-      <c r="G38" t="s">
-        <v>172</v>
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38">
+        <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="I38" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39">
+        <v>167</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39">
         <v>43.567495999999998</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>-72.289614999999998</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
       <c r="E39" t="s">
-        <v>161</v>
-      </c>
-      <c r="F39">
-        <v>30</v>
-      </c>
-      <c r="G39" t="s">
-        <v>172</v>
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39">
+        <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="I39" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>174</v>
-      </c>
-      <c r="B40">
+        <v>166</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40">
         <v>43.567495999999998</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>-72.289614999999998</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
       <c r="E40" t="s">
-        <v>161</v>
-      </c>
-      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40">
         <v>22</v>
       </c>
-      <c r="G40" t="s">
-        <v>172</v>
-      </c>
       <c r="H40" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="I40" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41">
+        <v>165</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41">
         <v>43.567495999999998</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>-72.289614999999998</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
       <c r="E41" t="s">
-        <v>161</v>
-      </c>
-      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41">
         <v>22</v>
       </c>
-      <c r="G41" t="s">
-        <v>172</v>
-      </c>
       <c r="H41" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="I41" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42">
+        <v>163</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42">
         <v>43.695740999999998</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>-87.718413999999996</v>
       </c>
-      <c r="D42" t="s">
-        <v>95</v>
-      </c>
       <c r="E42" t="s">
-        <v>147</v>
-      </c>
-      <c r="F42">
-        <v>30</v>
-      </c>
-      <c r="G42" t="s">
-        <v>160</v>
+        <v>90</v>
+      </c>
+      <c r="F42" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42">
+        <v>30</v>
       </c>
       <c r="H42" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="I42" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>170</v>
-      </c>
-      <c r="B43">
+        <v>162</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43">
         <v>43.134053999999999</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>-88.222330999999997</v>
       </c>
-      <c r="D43" t="s">
-        <v>64</v>
-      </c>
       <c r="E43" t="s">
-        <v>169</v>
-      </c>
-      <c r="F43">
-        <v>30</v>
-      </c>
-      <c r="G43" t="s">
-        <v>168</v>
+        <v>61</v>
+      </c>
+      <c r="F43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G43">
+        <v>30</v>
       </c>
       <c r="H43" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="I43" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>167</v>
-      </c>
-      <c r="B44">
+        <v>159</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44">
         <v>43.331550999999997</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>-88.290378000000004</v>
       </c>
-      <c r="D44" t="s">
-        <v>95</v>
-      </c>
       <c r="E44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>30</v>
+      </c>
+      <c r="H44" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44" t="s">
         <v>8</v>
-      </c>
-      <c r="F44">
-        <v>30</v>
-      </c>
-      <c r="G44" t="s">
-        <v>166</v>
-      </c>
-      <c r="H44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I44" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>165</v>
-      </c>
-      <c r="B45">
+        <v>157</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45">
         <v>40.196441</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>-92.579532999999998</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
       <c r="E45" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45">
-        <v>30</v>
-      </c>
-      <c r="G45" t="s">
-        <v>149</v>
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45">
+        <v>30</v>
       </c>
       <c r="H45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I45" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46">
+        <v>156</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46">
         <v>43.695740999999998</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>-87.718413999999996</v>
       </c>
-      <c r="D46" t="s">
-        <v>95</v>
-      </c>
       <c r="E46" t="s">
-        <v>147</v>
-      </c>
-      <c r="F46">
-        <v>30</v>
-      </c>
-      <c r="G46" t="s">
-        <v>160</v>
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46">
+        <v>30</v>
       </c>
       <c r="H46" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="I46" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>163</v>
-      </c>
-      <c r="B47">
+        <v>155</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47">
         <v>43.695740999999998</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>-87.718413999999996</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
       <c r="E47" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47">
         <v>22</v>
       </c>
-      <c r="G47" t="s">
-        <v>160</v>
-      </c>
       <c r="H47" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="I47" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>162</v>
-      </c>
-      <c r="B48">
+        <v>154</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48">
         <v>43.695740999999998</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>-87.718413999999996</v>
       </c>
-      <c r="D48" t="s">
-        <v>95</v>
-      </c>
       <c r="E48" t="s">
-        <v>161</v>
-      </c>
-      <c r="F48">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48">
         <v>22</v>
       </c>
-      <c r="G48" t="s">
-        <v>160</v>
-      </c>
       <c r="H48" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="I48" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>159</v>
-      </c>
-      <c r="B49">
+        <v>151</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49">
         <v>36.023224999999996</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>-80.303843999999998</v>
       </c>
-      <c r="D49" t="s">
-        <v>158</v>
-      </c>
       <c r="E49" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49">
-        <v>30</v>
-      </c>
-      <c r="G49" t="s">
-        <v>156</v>
+        <v>150</v>
+      </c>
+      <c r="F49" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49">
+        <v>30</v>
       </c>
       <c r="H49" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="I49" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50">
+        <v>147</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50">
         <v>36.023224999999996</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>-80.303843999999998</v>
       </c>
-      <c r="D50" t="s">
-        <v>40</v>
-      </c>
       <c r="E50" t="s">
-        <v>152</v>
-      </c>
-      <c r="F50">
-        <v>30</v>
-      </c>
-      <c r="G50" t="s">
-        <v>154</v>
+        <v>37</v>
+      </c>
+      <c r="F50" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50">
+        <v>30</v>
       </c>
       <c r="H50" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="I50" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>153</v>
-      </c>
-      <c r="B51">
+        <v>145</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51">
         <v>36.023224999999996</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>-80.303843999999998</v>
       </c>
-      <c r="D51" t="s">
-        <v>40</v>
-      </c>
       <c r="E51" t="s">
-        <v>152</v>
-      </c>
-      <c r="F51">
+        <v>37</v>
+      </c>
+      <c r="F51" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51">
         <v>22</v>
       </c>
-      <c r="G51" t="s">
-        <v>151</v>
-      </c>
       <c r="H51" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="I51" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>150</v>
-      </c>
-      <c r="B52">
+        <v>142</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52">
         <v>40.196441</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>-92.579532999999998</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
       <c r="E52" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52">
-        <v>30</v>
-      </c>
-      <c r="G52" t="s">
-        <v>149</v>
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52">
+        <v>30</v>
       </c>
       <c r="H52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I52" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>148</v>
-      </c>
-      <c r="B53">
+        <v>140</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53">
         <v>38.951813000000001</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>-92.336335000000005</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
       <c r="E53" t="s">
-        <v>147</v>
-      </c>
-      <c r="F53">
-        <v>30</v>
-      </c>
-      <c r="G53" t="s">
-        <v>146</v>
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53">
+        <v>30</v>
       </c>
       <c r="H53" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I53" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54">
+        <v>137</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54">
         <v>38.927489999999999</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>-92.348921000000004</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
       <c r="E54" t="s">
-        <v>21</v>
-      </c>
-      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54">
         <v>10</v>
       </c>
-      <c r="G54" t="s">
-        <v>143</v>
-      </c>
       <c r="H54" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I54" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>144</v>
-      </c>
-      <c r="B55">
+        <v>136</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55">
         <v>38.927489999999999</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>-92.348921000000004</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
       <c r="E55" t="s">
-        <v>21</v>
-      </c>
-      <c r="F55">
-        <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>143</v>
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55">
+        <v>30</v>
       </c>
       <c r="H55" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I55" t="s">
-        <v>88</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56">
+        <v>181</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56">
         <v>42.943976999999997</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>-89.583042000000006</v>
       </c>
-      <c r="D56" t="s">
-        <v>95</v>
-      </c>
       <c r="E56" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56">
+        <v>90</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56">
         <v>10</v>
       </c>
-      <c r="G56" t="s">
-        <v>138</v>
-      </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="I56" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>140</v>
-      </c>
-      <c r="B57">
+        <v>182</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57">
         <v>42.943976999999997</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>-89.583042000000006</v>
       </c>
-      <c r="D57" t="s">
-        <v>95</v>
-      </c>
       <c r="E57" t="s">
-        <v>21</v>
-      </c>
-      <c r="F57">
+        <v>90</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57">
         <v>10</v>
       </c>
-      <c r="G57" t="s">
-        <v>138</v>
-      </c>
       <c r="H57" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="I57" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>139</v>
-      </c>
-      <c r="B58">
+        <v>183</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
         <v>42.945430999999999</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>-89.584102000000001</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
       <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58" t="s">
+        <v>133</v>
+      </c>
+      <c r="I58" t="s">
         <v>8</v>
-      </c>
-      <c r="F58">
-        <v>10</v>
-      </c>
-      <c r="G58" t="s">
-        <v>138</v>
-      </c>
-      <c r="H58" t="s">
-        <v>11</v>
-      </c>
-      <c r="I58" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59">
+        <v>132</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59">
         <v>43.761667000000003</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>-71.668610999999999</v>
       </c>
-      <c r="D59" t="s">
-        <v>134</v>
-      </c>
       <c r="E59" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59">
+        <v>129</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59">
         <v>22</v>
       </c>
-      <c r="G59" t="s">
-        <v>136</v>
-      </c>
       <c r="H59" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I59" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60">
+        <v>130</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60">
         <v>43.025855</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>-89.844324999999998</v>
       </c>
-      <c r="D60" t="s">
-        <v>134</v>
-      </c>
       <c r="E60" t="s">
-        <v>132</v>
-      </c>
-      <c r="F60">
-        <v>30</v>
-      </c>
-      <c r="G60" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="F60" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60">
+        <v>30</v>
       </c>
       <c r="H60" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>133</v>
-      </c>
-      <c r="B61">
+        <v>128</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61">
         <v>43.025855</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>-89.844324999999998</v>
       </c>
-      <c r="D61" t="s">
-        <v>95</v>
-      </c>
       <c r="E61" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61">
-        <v>30</v>
-      </c>
-      <c r="G61" t="s">
-        <v>131</v>
+        <v>90</v>
+      </c>
+      <c r="F61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G61">
+        <v>30</v>
       </c>
       <c r="H61" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="I61" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62">
+        <v>125</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62">
         <v>44.837907000000001</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>-88.331760000000003</v>
       </c>
-      <c r="D62" t="s">
-        <v>128</v>
-      </c>
       <c r="E62" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>30</v>
+      </c>
+      <c r="H62" t="s">
+        <v>122</v>
+      </c>
+      <c r="I62" t="s">
         <v>8</v>
-      </c>
-      <c r="F62">
-        <v>30</v>
-      </c>
-      <c r="G62" t="s">
-        <v>127</v>
-      </c>
-      <c r="H62" t="s">
-        <v>11</v>
-      </c>
-      <c r="I62" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63">
+        <v>124</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63">
         <v>44.837907000000001</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>-88.331760000000003</v>
       </c>
-      <c r="D63" t="s">
-        <v>128</v>
-      </c>
       <c r="E63" t="s">
+        <v>123</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>22</v>
+      </c>
+      <c r="H63" t="s">
+        <v>122</v>
+      </c>
+      <c r="I63" t="s">
         <v>8</v>
-      </c>
-      <c r="F63">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>127</v>
-      </c>
-      <c r="H63" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64">
+        <v>121</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64">
         <v>40.396000000000001</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>-80.13</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
       <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64">
         <v>10</v>
-      </c>
-      <c r="G64" t="s">
-        <v>125</v>
       </c>
       <c r="H64" t="s">
         <v>120</v>
       </c>
       <c r="I64" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65">
+        <v>119</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65">
         <v>39.871665</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>-79.492928000000006</v>
       </c>
-      <c r="D65" t="s">
-        <v>122</v>
-      </c>
       <c r="E65" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65">
-        <v>30</v>
-      </c>
-      <c r="G65" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="F65" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65">
+        <v>30</v>
       </c>
       <c r="H65" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I65" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>123</v>
-      </c>
-      <c r="B66">
+        <v>118</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66">
         <v>39.871665</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>-79.492928000000006</v>
       </c>
-      <c r="D66" t="s">
-        <v>122</v>
-      </c>
       <c r="E66" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66">
+        <v>117</v>
+      </c>
+      <c r="F66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66">
         <v>22</v>
       </c>
-      <c r="G66" t="s">
-        <v>121</v>
-      </c>
       <c r="H66" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I66" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67">
+        <v>114</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67">
         <v>37.626981000000001</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>-119.635941</v>
       </c>
-      <c r="D67" t="s">
-        <v>117</v>
-      </c>
       <c r="E67" t="s">
-        <v>116</v>
-      </c>
-      <c r="F67">
+        <v>112</v>
+      </c>
+      <c r="F67" t="s">
+        <v>111</v>
+      </c>
+      <c r="G67">
         <v>10</v>
       </c>
-      <c r="G67" t="s">
-        <v>115</v>
-      </c>
       <c r="H67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I67" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68">
+        <v>113</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68">
         <v>37.626981000000001</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>-119.635941</v>
       </c>
-      <c r="D68" t="s">
-        <v>117</v>
-      </c>
       <c r="E68" t="s">
-        <v>116</v>
-      </c>
-      <c r="F68">
+        <v>112</v>
+      </c>
+      <c r="F68" t="s">
+        <v>111</v>
+      </c>
+      <c r="G68">
         <v>10</v>
       </c>
-      <c r="G68" t="s">
-        <v>115</v>
-      </c>
       <c r="H68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I68" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69">
+        <v>109</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69">
         <v>39.467750000000002</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>-123.156111</v>
       </c>
-      <c r="D69" t="s">
-        <v>113</v>
-      </c>
       <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69">
+        <v>108</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69">
         <v>22</v>
       </c>
-      <c r="G69" t="s">
-        <v>112</v>
-      </c>
       <c r="H69" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I69" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>110</v>
-      </c>
-      <c r="B70" t="s">
-        <v>8</v>
+        <v>105</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>21</v>
-      </c>
-      <c r="F70">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70">
         <v>22</v>
       </c>
-      <c r="G70" t="s">
-        <v>109</v>
-      </c>
       <c r="H70" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I70" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>107</v>
-      </c>
-      <c r="B71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71">
+        <v>22</v>
+      </c>
+      <c r="H71" t="s">
+        <v>99</v>
+      </c>
+      <c r="I71" t="s">
         <v>8</v>
-      </c>
-      <c r="C71" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>104</v>
-      </c>
-      <c r="H71" t="s">
-        <v>11</v>
-      </c>
-      <c r="I71" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>106</v>
-      </c>
-      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s">
+        <v>99</v>
+      </c>
+      <c r="I72" t="s">
         <v>8</v>
-      </c>
-      <c r="C72" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>104</v>
-      </c>
-      <c r="H72" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>105</v>
-      </c>
-      <c r="B73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>22</v>
+      </c>
+      <c r="H73" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" t="s">
         <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>104</v>
-      </c>
-      <c r="H73" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74">
+        <v>98</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74">
         <v>46.482739000000002</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>-86.671216000000001</v>
       </c>
-      <c r="D74" t="s">
-        <v>14</v>
-      </c>
       <c r="E74" t="s">
-        <v>56</v>
-      </c>
-      <c r="F74">
-        <v>30</v>
-      </c>
-      <c r="G74" t="s">
-        <v>57</v>
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>53</v>
+      </c>
+      <c r="G74">
+        <v>30</v>
       </c>
       <c r="H74" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I74" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75">
+        <v>97</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75">
         <v>34.951681000000001</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>-82.946213</v>
       </c>
-      <c r="D75" t="s">
-        <v>36</v>
-      </c>
       <c r="E75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75">
+        <v>33</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75">
         <v>22</v>
       </c>
-      <c r="G75" t="s">
-        <v>33</v>
-      </c>
       <c r="H75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I75" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76">
+        <v>96</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76">
         <v>34.951681000000001</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>-82.946213</v>
       </c>
-      <c r="D76" t="s">
-        <v>14</v>
-      </c>
       <c r="E76" t="s">
-        <v>100</v>
-      </c>
-      <c r="F76">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>95</v>
+      </c>
+      <c r="G76">
         <v>22</v>
       </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
       <c r="H76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I76" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>99</v>
-      </c>
-      <c r="B77">
+        <v>94</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77">
         <v>36.911855000000003</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>-80.319293000000002</v>
       </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
       <c r="E77" t="s">
-        <v>21</v>
-      </c>
-      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77">
         <v>22</v>
       </c>
-      <c r="G77" t="s">
-        <v>98</v>
-      </c>
       <c r="H77" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="I77" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>97</v>
-      </c>
-      <c r="B78">
+        <v>92</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78">
         <v>35.992857000000001</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>-78.890414000000007</v>
       </c>
-      <c r="D78" t="s">
-        <v>95</v>
-      </c>
       <c r="E78" t="s">
-        <v>26</v>
-      </c>
-      <c r="F78">
-        <v>30</v>
-      </c>
-      <c r="G78" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="F78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78">
+        <v>30</v>
       </c>
       <c r="H78" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="I78" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>96</v>
-      </c>
-      <c r="B79">
+        <v>91</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79">
         <v>35.992857000000001</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>-78.890414000000007</v>
       </c>
-      <c r="D79" t="s">
-        <v>95</v>
-      </c>
       <c r="E79" t="s">
-        <v>26</v>
-      </c>
-      <c r="F79">
+        <v>90</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79">
         <v>22</v>
       </c>
-      <c r="G79" t="s">
-        <v>94</v>
-      </c>
       <c r="H79" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="I79" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80">
+        <v>88</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80">
         <v>42.866602999999998</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>-88.336550000000003</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80">
+        <v>22</v>
+      </c>
+      <c r="H80" t="s">
         <v>7</v>
       </c>
-      <c r="E80" t="s">
+      <c r="I80" t="s">
         <v>8</v>
-      </c>
-      <c r="F80">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>92</v>
-      </c>
-      <c r="B81">
+        <v>87</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81">
         <v>42.866602999999998</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>-88.336550000000003</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s">
         <v>7</v>
       </c>
-      <c r="E81" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" t="s">
-        <v>11</v>
-      </c>
       <c r="I81" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>91</v>
-      </c>
-      <c r="B82">
+        <v>86</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82">
         <v>42.866602999999998</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>-88.336550000000003</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82">
+        <v>22</v>
+      </c>
+      <c r="H82" t="s">
         <v>7</v>
       </c>
-      <c r="E82" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>10</v>
-      </c>
-      <c r="H82" t="s">
-        <v>11</v>
-      </c>
       <c r="I82" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83">
+        <v>85</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83">
         <v>43.074376000000001</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>-89.410549000000003</v>
       </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
       <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>22</v>
+      </c>
+      <c r="H83" t="s">
+        <v>84</v>
+      </c>
+      <c r="I83" t="s">
         <v>8</v>
-      </c>
-      <c r="F83">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>89</v>
-      </c>
-      <c r="H83" t="s">
-        <v>11</v>
-      </c>
-      <c r="I83" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
